--- a/USE CASES.xlsx
+++ b/USE CASES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anvit\Downloads\hospital_booking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E825B3B0-6863-4FAA-9DE0-176679CAC543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B4126F-8DCD-4FD1-AD39-C6A18C726894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9CA795B5-8B4D-4CAB-9F00-EF36DE685C73}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="224">
   <si>
     <t>TC ID</t>
   </si>
@@ -573,6 +573,475 @@
         <family val="1"/>
       </rPr>
       <t>/abcxyz</t>
+    </r>
+  </si>
+  <si>
+    <t>TC39</t>
+  </si>
+  <si>
+    <t>Flash message: “Appointment booking cancelled.”</t>
+  </si>
+  <si>
+    <t>TC40</t>
+  </si>
+  <si>
+    <t>Booking appointment with email having invalid domain</t>
+  </si>
+  <si>
+    <t>Flash message: “Invalid email format.”</t>
+  </si>
+  <si>
+    <t>TC41</t>
+  </si>
+  <si>
+    <t>Attempt booking for a past time</t>
+  </si>
+  <si>
+    <t>Select past date/time (e.g., yesterday), submit</t>
+  </si>
+  <si>
+    <t>Flash message: “Cannot book past appointments.”</t>
+  </si>
+  <si>
+    <t>TC42</t>
+  </si>
+  <si>
+    <t>TC43</t>
+  </si>
+  <si>
+    <t>Send contact query with missing message</t>
+  </si>
+  <si>
+    <t>Leave the message field blank, submit</t>
+  </si>
+  <si>
+    <t>Query not saved, possibly flash error or validation handled</t>
+  </si>
+  <si>
+    <t>TC44</t>
+  </si>
+  <si>
+    <t>Email not sent (SMTP failure simulation)</t>
+  </si>
+  <si>
+    <t>Disconnect network or change SMTP credentials, submit form</t>
+  </si>
+  <si>
+    <t>Email sending fails silently, logs “Email sending failed:” in console</t>
+  </si>
+  <si>
+    <t>TC45</t>
+  </si>
+  <si>
+    <t>Add new admin and verify in list</t>
+  </si>
+  <si>
+    <t>Add admin from form, then refresh admin list</t>
+  </si>
+  <si>
+    <t>New admin appears in rendered list</t>
+  </si>
+  <si>
+    <t>TC46</t>
+  </si>
+  <si>
+    <t>Toggle doctor status twice</t>
+  </si>
+  <si>
+    <t>Toggle a doctor to inactive, then active again</t>
+  </si>
+  <si>
+    <t>Status toggled correctly and confirmed via flash message</t>
+  </si>
+  <si>
+    <t>TC47</t>
+  </si>
+  <si>
+    <t>Appointments grouped and listed under each doctor</t>
+  </si>
+  <si>
+    <t>TC48</t>
+  </si>
+  <si>
+    <t>Cancel non-existent appointment</t>
+  </si>
+  <si>
+    <t>404 error page shown</t>
+  </si>
+  <si>
+    <t>TC49</t>
+  </si>
+  <si>
+    <t>Admin deletes appointment and checks archive</t>
+  </si>
+  <si>
+    <t>Deleted appointment appears in archive</t>
+  </si>
+  <si>
+    <t>TC50</t>
+  </si>
+  <si>
+    <t>Filter archived appointments by status</t>
+  </si>
+  <si>
+    <t>History filtered to show only selected status</t>
+  </si>
+  <si>
+    <t>TC51</t>
+  </si>
+  <si>
+    <t>After logout, try to access dashboard</t>
+  </si>
+  <si>
+    <t>Redirected to login with flash “Logged out.”</t>
+  </si>
+  <si>
+    <t>TC52</t>
+  </si>
+  <si>
+    <t>Attempt to book slot when all slots are packed</t>
+  </si>
+  <si>
+    <t>Book all slots until hospital closing, then try booking more</t>
+  </si>
+  <si>
+    <t>Flash message: “Slots are packed for today. Please book for the next day.”</t>
+  </si>
+  <si>
+    <t>TC53</t>
+  </si>
+  <si>
+    <t>Duplicate appointment within 30 minutes shows confirm</t>
+  </si>
+  <si>
+    <t>Book an appointment, then try again within 30 mins with same details</t>
+  </si>
+  <si>
+    <t>TC54</t>
+  </si>
+  <si>
+    <t>Submit contact form and check email reply-to header</t>
+  </si>
+  <si>
+    <t>Submit form with valid email</t>
+  </si>
+  <si>
+    <t>TC55</t>
+  </si>
+  <si>
+    <t>Book appointment exactly at hospital open time</t>
+  </si>
+  <si>
+    <t>Set time to 08:00</t>
+  </si>
+  <si>
+    <t>Booking accepted</t>
+  </si>
+  <si>
+    <t>TC56</t>
+  </si>
+  <si>
+    <t>Book appointment ending exactly at close time</t>
+  </si>
+  <si>
+    <t>Set appointment at 21:30</t>
+  </si>
+  <si>
+    <t>TC57</t>
+  </si>
+  <si>
+    <t>Book appointment that would end after close time</t>
+  </si>
+  <si>
+    <t>Set time to 21:45</t>
+  </si>
+  <si>
+    <t>Flash message: “Appointments must start and end between 08:00 and 22:00.”</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attempt to book appointment with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>confirm=no</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fill form, set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>confirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter email like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>user@example.xyz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, submit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Admin tries to access </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/add_doctor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> without login</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Directly visit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/admin/add_doctor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> without login</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Redirected to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/admin/login</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Doctor’s appointment list in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/doctor_corner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Go to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/doctor_corner</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Access </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/cancel/&lt;invalid_id&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> with wrong ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delete an appointment via dashboard, go to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/admin/history</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Go to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/admin/history?status=confirmed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>cancelled</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Admin logs out and tries to access </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/dashboard</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shows </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>confirm_duplicate.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Admin receives email with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Reply-To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> header set</t>
     </r>
   </si>
 </sst>
@@ -986,23 +1455,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38564EAB-B19A-4FBF-B246-A375CAB32839}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="3" customWidth="1"/>
     <col min="6" max="16384" width="31.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1486,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1032,7 +1501,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1047,7 +1516,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1062,7 +1531,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1077,7 +1546,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1092,7 +1561,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -1107,7 +1576,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -1122,7 +1591,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
@@ -1137,7 +1606,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -1152,7 +1621,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -1167,7 +1636,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
@@ -1182,7 +1651,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -1197,7 +1666,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -1212,7 +1681,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -1227,7 +1696,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
@@ -1242,7 +1711,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
@@ -1257,7 +1726,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
@@ -1272,7 +1741,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>62</v>
       </c>
@@ -1287,7 +1756,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>66</v>
       </c>
@@ -1302,7 +1771,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>70</v>
       </c>
@@ -1317,7 +1786,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>74</v>
       </c>
@@ -1332,7 +1801,7 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>77</v>
       </c>
@@ -1347,7 +1816,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>81</v>
       </c>
@@ -1362,7 +1831,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>85</v>
       </c>
@@ -1377,7 +1846,7 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>89</v>
       </c>
@@ -1392,7 +1861,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>93</v>
       </c>
@@ -1407,7 +1876,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>97</v>
       </c>
@@ -1422,7 +1891,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>98</v>
       </c>
@@ -1437,7 +1906,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>99</v>
       </c>
@@ -1452,7 +1921,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>102</v>
       </c>
@@ -1467,7 +1936,7 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>106</v>
       </c>
@@ -1482,7 +1951,7 @@
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>110</v>
       </c>
@@ -1497,7 +1966,7 @@
       </c>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>114</v>
       </c>
@@ -1512,7 +1981,7 @@
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>118</v>
       </c>
@@ -1527,7 +1996,7 @@
       </c>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>119</v>
       </c>
@@ -1542,7 +2011,7 @@
       </c>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>120</v>
       </c>
@@ -1557,7 +2026,7 @@
       </c>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>124</v>
       </c>
@@ -1572,7 +2041,7 @@
       </c>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>125</v>
       </c>
@@ -1586,6 +2055,272 @@
         <v>142</v>
       </c>
       <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>209</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
